--- a/doc/patterns.xlsx
+++ b/doc/patterns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\arduino\drled\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3592CE89-B029-48B0-BE2D-8C77E2728702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE796E-4323-423E-BD79-3D8752C52E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32025" yWindow="-1410" windowWidth="27165" windowHeight="15885" xr2:uid="{AB0D6A0C-DBB6-4D72-8991-D53C8F0431F3}"/>
+    <workbookView xWindow="-37815" yWindow="120" windowWidth="30825" windowHeight="18000" xr2:uid="{AB0D6A0C-DBB6-4D72-8991-D53C8F0431F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="55">
   <si>
     <t>Pattern Options</t>
   </si>
@@ -58,14 +58,174 @@
   </si>
   <si>
     <t>smooth</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">array </t>
+  </si>
+  <si>
+    <t>int, str, object</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>bool, int</t>
+  </si>
+  <si>
+    <t>true=fill strip
+false/0=stretch
+&gt;0=count</t>
+  </si>
+  <si>
+    <t>Msecs to repeat time domain</t>
+  </si>
+  <si>
+    <t>steps/second</t>
+  </si>
+  <si>
+    <t>true=create gradient from one element to the next</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>stretch</t>
+  </si>
+  <si>
+    <t>same as repeat=false</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>"linear" or #</t>
+  </si>
+  <si>
+    <t>ease="linear" or default for CB in/out</t>
+  </si>
+  <si>
+    <t>ease-in, ease-out</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>use "ease"</t>
+  </si>
+  <si>
+    <t>ignore if "ease"=="linear"</t>
+  </si>
+  <si>
+    <t>Time domain</t>
+  </si>
+  <si>
+    <t>Position domain</t>
+  </si>
+  <si>
+    <t>true means repeat to end of strip</t>
+  </si>
+  <si>
+    <t>true means repeat forever.
+False means do once</t>
+  </si>
+  <si>
+    <t>ignored</t>
+  </si>
+  <si>
+    <t>Create time domain</t>
+  </si>
+  <si>
+    <t>ignored if duration</t>
+  </si>
+  <si>
+    <t>full pattern done in duration (include unfold if true)</t>
+  </si>
+  <si>
+    <t>ease used for each pattern element transition rather than entire pattern</t>
+  </si>
+  <si>
+    <t>Option Combinations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---- uses -----&gt;</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Ease</t>
+  </si>
+  <si>
+    <t>Animator</t>
+  </si>
+  <si>
+    <t>Smoother</t>
+  </si>
+  <si>
+    <t>StretchPatternRange</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>RepeatPatternRange</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>step</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,8 +253,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,58 +580,1098 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A16CE14-9EE6-4EF3-B887-D3DFD2D69EE1}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="b">
+        <v>0</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="b">
+        <v>1</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="b">
+        <v>1</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="b">
+        <v>1</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" t="s">
+        <v>53</v>
+      </c>
+      <c r="L40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="b">
+        <v>1</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41" t="s">
+        <v>53</v>
+      </c>
+      <c r="L41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="b">
+        <v>1</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" t="s">
+        <v>53</v>
+      </c>
+      <c r="L42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" t="s">
+        <v>53</v>
+      </c>
+      <c r="L43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" t="s">
+        <v>53</v>
+      </c>
+      <c r="L45" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/patterns.xlsx
+++ b/doc/patterns.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\arduino\drled\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE796E-4323-423E-BD79-3D8752C52E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671C6996-DFD6-4E1E-AB14-312645FDEB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37815" yWindow="120" windowWidth="30825" windowHeight="18000" xr2:uid="{AB0D6A0C-DBB6-4D72-8991-D53C8F0431F3}"/>
+    <workbookView xWindow="-37815" yWindow="120" windowWidth="30825" windowHeight="18000" activeTab="1" xr2:uid="{AB0D6A0C-DBB6-4D72-8991-D53C8F0431F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="59">
   <si>
     <t>Pattern Options</t>
   </si>
@@ -202,6 +203,18 @@
   </si>
   <si>
     <t>step</t>
+  </si>
+  <si>
+    <t>elements (same size)</t>
+  </si>
+  <si>
+    <t>elements (different sizes)</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -241,10 +254,28 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -253,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -261,16 +292,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -582,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A16CE14-9EE6-4EF3-B887-D3DFD2D69EE1}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
@@ -600,7 +672,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -672,16 +744,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="b">
+      <c r="D8" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
@@ -692,10 +764,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="E9" t="s">
         <v>31</v>
       </c>
@@ -769,54 +841,54 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1664,14 +1736,334 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF84F89-FB84-4CFC-B3E4-46F89A8D251B}">
+  <dimension ref="A2:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11">
+        <v>4</v>
+      </c>
+      <c r="I3" s="11">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="11">
+        <v>2</v>
+      </c>
+      <c r="L3" s="11">
+        <v>3</v>
+      </c>
+      <c r="M3" s="11">
+        <v>4</v>
+      </c>
+      <c r="N3" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="K2:N2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D4:N11">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>